--- a/data repository/optional shelter sites/shelter_coordinate.xlsx
+++ b/data repository/optional shelter sites/shelter_coordinate.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jupyter\FloodManage\data repository\optional shelter sites\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files (x86)\1111\FloodManagementProject\data repository\optional shelter sites\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08FDF9DD-F609-43EC-8ED8-74BBF5843C86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F9D78E0-B198-41AC-9675-09C3748A531B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1747" windowWidth="21600" windowHeight="10936" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,10 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
-    <t>Coordinate of shelter sites (Mercator coordinates)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>#1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -72,6 +68,10 @@
   </si>
   <si>
     <t>Optional shelter sites</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coordinate of shelter sites (Mercator coordinate)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -429,50 +429,50 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
